--- a/diplom/январь/models_results_optimized_ув.xlsx
+++ b/diplom/январь/models_results_optimized_ув.xlsx
@@ -507,7 +507,7 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>24.76410615115389</v>
+        <v>24.7641061511539</v>
       </c>
     </row>
     <row r="10">
@@ -579,7 +579,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>23.77047938173678</v>
+        <v>23.77047938173679</v>
       </c>
     </row>
     <row r="19">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.423189895394014</v>
+        <v>9.423189895394016</v>
       </c>
     </row>
     <row r="3">
